--- a/Daten/Schulferien/Ferien94_95.xlsx
+++ b/Daten/Schulferien/Ferien94_95.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/93680e6007ede3e3/Hochschule/DSC_Semester4/Data Analytics and Business Intelligence 2/Projekt/dabi2-project/Daten/Schulferien/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="11_777FBB01030AEF13747298441D873954438F24A7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A35E6BAE-9BE7-49D9-B20E-4CC06E7E8489}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="11_777FBB01030AEF13747298441D873954438F24A7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CE208578-5CE5-42E0-8C5E-2DFCFFBA235E}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="118">
   <si>
     <r>
       <rPr>
@@ -337,9 +337,6 @@
   </si>
   <si>
     <t xml:space="preserve">21.12.-07.01. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4) </t>
   </si>
   <si>
     <t xml:space="preserve">10.04.-24.04. </t>
@@ -686,13 +683,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -710,6 +707,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -978,7 +979,7 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1280,181 +1281,179 @@
       <c r="D13" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="E13" s="10"/>
+      <c r="F13" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="G13" s="9" t="s">
         <v>89</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="C14" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="D14" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="E14" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="F14" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="F14" s="8" t="s">
+      <c r="G14" s="8" t="s">
         <v>96</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B15" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="C15" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="D15" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="E15" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="F15" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="F15" s="8" t="s">
+      <c r="G15" s="8" t="s">
         <v>103</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="C16" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="D16" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="E16" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="F16" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="F16" s="8" t="s">
+      <c r="G16" s="9" t="s">
         <v>110</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="B17" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="C17" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="D17" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="D17" s="12" t="s">
+      <c r="E17" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="E17" s="12" t="s">
+      <c r="F17" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="F17" s="13" t="s">
+      <c r="G17" s="13" t="s">
         <v>117</v>
-      </c>
-      <c r="G17" s="13" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="19" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="14"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
     </row>
     <row r="20" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
     </row>
     <row r="21" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="14"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
     </row>
     <row r="22" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="14"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
     </row>
     <row r="23" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="14"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
     </row>
     <row r="24" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="14"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
     </row>
     <row r="25" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="16"/>
-      <c r="B25" s="15"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
+      <c r="A25" s="15"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="B20:G20"/>
     <mergeCell ref="B21:G21"/>
     <mergeCell ref="B22:G22"/>
     <mergeCell ref="B23:G23"/>
     <mergeCell ref="B24:G24"/>
     <mergeCell ref="A25:G25"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="B20:G20"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
